--- a/2021年D题第4问/五个ADMET的性质.xlsx
+++ b/2021年D题第4问/五个ADMET的性质.xlsx
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -550,13 +550,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -652,13 +652,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -754,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
